--- a/src/kpi/docs/kpi_report.xlsx
+++ b/src/kpi/docs/kpi_report.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
-  <si>
-    <t>序号</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>周期</t>
   </si>
@@ -28,172 +25,145 @@
     <t>日期</t>
   </si>
   <si>
-    <t>关键工作简述&amp;评价</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>客观数据</t>
+  </si>
+  <si>
+    <t>缺陷解决</t>
+  </si>
+  <si>
+    <t>代码提交</t>
+  </si>
+  <si>
+    <t>已处理</t>
+  </si>
+  <si>
+    <t>分析后转出</t>
+  </si>
+  <si>
+    <t>遗留</t>
+  </si>
+  <si>
+    <t>修复率</t>
+  </si>
+  <si>
+    <t>次数</t>
+  </si>
+  <si>
+    <t>文档</t>
+  </si>
+  <si>
+    <t>培训</t>
+  </si>
+  <si>
+    <t>人效</t>
+  </si>
+  <si>
+    <t>本周关键工作简述&amp;评价</t>
+  </si>
+  <si>
+    <t>四</t>
+  </si>
+  <si>
+    <t>2020-03-19</t>
+  </si>
+  <si>
+    <t>五</t>
+  </si>
+  <si>
+    <t>2020-03-20</t>
+  </si>
+  <si>
+    <t>六</t>
+  </si>
+  <si>
+    <t>2020-03-21</t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>2020-03-22</t>
+  </si>
+  <si>
+    <t>一</t>
+  </si>
+  <si>
+    <t>2020-03-23</t>
+  </si>
+  <si>
+    <t>二</t>
+  </si>
+  <si>
+    <t>2020-03-24</t>
+  </si>
+  <si>
+    <t>三</t>
+  </si>
+  <si>
+    <t>2020-03-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-19 ~ 2020-03-25 工作汇总 
+[710Q]
+  - Bugs: (1 个) ,  - 已处理：0， 解决中：1， 分析转出：0
+    876229
+--------------------
+[6125Q]
+  - Bugs: (2 个) ,  - 已处理：0， 解决中：2， 分析转出：0
+    876228  876230
+--------------------
+文档输出: 1 篇
+工作时间投入度 
+ 710Q: 2.0 / 10.0 = 20%
+ 6125Q: 5.0 / 10.0 = 50%
+</t>
   </si>
   <si>
     <t>W12</t>
   </si>
   <si>
-    <t>五</t>
-  </si>
-  <si>
-    <t>2020-03-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6125Q
- - Bug 876222 zzzz
-   状态：解决中
-   进展：fff
- - Bug 876223 标题1
-   状态：解决中
-   进展：进展1
- - Bug 876224 标题2
-   状态：解决中
-   进展：进展2
+    <t>2020-03-26</t>
+  </si>
+  <si>
+    <t>2020-03-27</t>
+  </si>
+  <si>
+    <t>2020-03-28</t>
+  </si>
+  <si>
+    <t>2020-03-29</t>
+  </si>
+  <si>
+    <t>2020-03-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2020-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-26 ~ 2020-04-01 工作汇总 
+[710Q]
+  - Bugs: (1 个) ,  - 已处理：0， 解决中：1， 分析转出：0
+    876232.3
+--------------------
+[6125Q]
+  - Bugs: (2 个) ,  - 已处理：1， 解决中：1， 分析转出：0
+    876226  876221
+  - 代码提交: 1笔
+--------------------
+[660P]
+  - 代码提交: 1笔
+--------------------
+工作时间投入度 
+ 710Q: 2.0 / 22.5 = 9%
+ 6125Q: 12.5 / 22.5 = 56%
+ 660P: 8.0 / 22.5 = 36%
 </t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>六</t>
-  </si>
-  <si>
-    <t>2020-03-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6125Q
- - Bug 876225 标题3
-   状态：解决中
-   进展：进展3
- - Bug 876226 标题4
-   状态：解决中
-   进展：进展4
- - Bug 876227 标题5
-   状态：解决中
-   进展：进展5
-</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>日</t>
-  </si>
-  <si>
-    <t>2020-03-22</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>W13</t>
-  </si>
-  <si>
-    <t>一</t>
-  </si>
-  <si>
-    <t>2020-03-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6125Q
- - Bug 876228 标题6
-   状态：解决中
-   进展：进展6
-</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>二</t>
-  </si>
-  <si>
-    <t>2020-03-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">710Q
- - Bug 876229 标题7
-   状态：解决中
-   进展：进展7
-</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>三</t>
-  </si>
-  <si>
-    <t>2020-03-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6125Q
- - Bug 876230 标题8
-   状态：解决中
-   进展：进展8
-</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>四</t>
-  </si>
-  <si>
-    <t>2020-03-26</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>2020-03-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">710Q
- - Bug 876232 标题10
-   状态：解决中
-   进展：进展10
-6125Q
- - Bug 876231 标题9
-   状态：解决中
-   进展：进展9
-6125Q
- - AOA 标题1 
-   状态：进行中
-   进展：nan
-</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>2020-03-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6125Q
- - Bug 876221 YYYY
-   状态：解决中
-   进展：fj ane 
-</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>2020-03-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">660P
- - 自检 标题2 
-   状态：进行中
-   进展：nan
-文档输出：
- - 经验传承 AAA 
-</t>
   </si>
 </sst>
 </file>
@@ -264,11 +234,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -564,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -572,12 +542,19 @@
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" customWidth="1"/>
+    <col min="12" max="12" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20" customHeight="1">
+    <row r="1" spans="1:12" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,177 +567,481 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="20" customHeight="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" ht="20" customHeight="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="C11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="L4:L10"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="L11:L17"/>
+    <mergeCell ref="A11:A17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/kpi/docs/kpi_report.xlsx
+++ b/src/kpi/docs/kpi_report.xlsx
@@ -105,12 +105,12 @@
   <si>
     <t xml:space="preserve">2020-03-19 ~ 2020-03-25 工作汇总 
 [710Q]
-  - Bugs: (1 个) ,  - 已处理：0， 解决中：1， 分析转出：0
+  - Bugs: (1 个) ,  - 已处理：0， 解决中：1， 分析转出：0 , 工作时长: 2.0
     876229
 --------------------
 [6125Q]
-  - Bugs: (2 个) ,  - 已处理：0， 解决中：2， 分析转出：0
-    876228  876230
+  - Bugs: (2 个) ,  - 已处理：0， 解决中：2， 分析转出：0 , 工作时长: 5.0
+    876230  876228
 --------------------
 文档输出: 1 篇
 工作时间投入度 
@@ -145,21 +145,21 @@
   <si>
     <t xml:space="preserve">2020-03-26 ~ 2020-04-01 工作汇总 
 [710Q]
-  - Bugs: (1 个) ,  - 已处理：0， 解决中：1， 分析转出：0
+  - Bugs: (1 个) ,  - 已处理：0， 解决中：1， 分析转出：0 , 工作时长: 2.0
     876232.3
---------------------
-[6125Q]
-  - Bugs: (2 个) ,  - 已处理：1， 解决中：1， 分析转出：0
-    876226  876221
-  - 代码提交: 1笔
 --------------------
 [660P]
   - 代码提交: 1笔
 --------------------
+[6125Q]
+  - Bugs: (2 个) ,  - 已处理：1， 解决中：1， 分析转出：0 , 工作时长: 12.5
+    876226  876221
+  - 代码提交: 1笔
+--------------------
 工作时间投入度 
  710Q: 2.0 / 22.5 = 9%
+ 660P: 8.0 / 22.5 = 36%
  6125Q: 12.5 / 22.5 = 56%
- 660P: 8.0 / 22.5 = 36%
 </t>
   </si>
   <si>
